--- a/Analyses/CAMspiracy/t2_CAMs/outputs/PROLIFIC_PIDs_USA_notParticipated.xlsx
+++ b/Analyses/CAMspiracy/t2_CAMs/outputs/PROLIFIC_PIDs_USA_notParticipated.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="319">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="307">
   <si>
     <t>x</t>
   </si>
@@ -476,24 +476,6 @@
     <t>153</t>
   </si>
   <si>
-    <t>154</t>
-  </si>
-  <si>
-    <t>155</t>
-  </si>
-  <si>
-    <t>156</t>
-  </si>
-  <si>
-    <t>157</t>
-  </si>
-  <si>
-    <t>158</t>
-  </si>
-  <si>
-    <t>159</t>
-  </si>
-  <si>
     <t>61255c5cd3dc2cfd8fbc101d</t>
   </si>
   <si>
@@ -506,9 +488,6 @@
     <t>63a3375101319bb7cb39f654</t>
   </si>
   <si>
-    <t>5fff542aeed8c2065133114e</t>
-  </si>
-  <si>
     <t>6480d2e60bb76dc7968705dd</t>
   </si>
   <si>
@@ -566,9 +545,6 @@
     <t>6335d094ca5827c5d63b143f</t>
   </si>
   <si>
-    <t>5c395df5f5ebd50001850900</t>
-  </si>
-  <si>
     <t>63db74b49b4a80525a557a61</t>
   </si>
   <si>
@@ -635,9 +611,6 @@
     <t>6557ae6a9c99c1c63fdf2ab4</t>
   </si>
   <si>
-    <t>63d13f2f59ef764f641406dd</t>
-  </si>
-  <si>
     <t>5fa1636a77c875235bd8e1f6</t>
   </si>
   <si>
@@ -779,9 +752,6 @@
     <t>6556c9a04aa50bfb13f2a3f2</t>
   </si>
   <si>
-    <t>61188057fe5a395476806c12</t>
-  </si>
-  <si>
     <t>633f03bb432dc8f74ab3a896</t>
   </si>
   <si>
@@ -809,9 +779,6 @@
     <t>600f4361d8ad4b1021236a24</t>
   </si>
   <si>
-    <t>60c14a3e834adb62102cffa0</t>
-  </si>
-  <si>
     <t>5eb29a3db97d6b0008d24a1a</t>
   </si>
   <si>
@@ -948,9 +915,6 @@
   </si>
   <si>
     <t>59f226a9d6380600018b2923</t>
-  </si>
-  <si>
-    <t>62d59a066ee263bb659aa445</t>
   </si>
   <si>
     <t>6334b0fc574064de4e68f578</t>
@@ -1030,7 +994,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
     </row>
     <row r="3">
@@ -1038,7 +1002,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
     </row>
     <row r="4">
@@ -1046,7 +1010,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
     </row>
     <row r="5">
@@ -1054,7 +1018,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
     </row>
     <row r="6">
@@ -1062,7 +1026,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
     </row>
     <row r="7">
@@ -1070,7 +1034,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
     </row>
     <row r="8">
@@ -1078,7 +1042,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
     </row>
     <row r="9">
@@ -1086,7 +1050,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
     </row>
     <row r="10">
@@ -1094,7 +1058,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
     </row>
     <row r="11">
@@ -1102,7 +1066,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
     </row>
     <row r="12">
@@ -1110,7 +1074,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
     </row>
     <row r="13">
@@ -1118,7 +1082,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
     </row>
     <row r="14">
@@ -1126,7 +1090,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
     </row>
     <row r="15">
@@ -1134,7 +1098,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
     </row>
     <row r="16">
@@ -1142,7 +1106,7 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
     </row>
     <row r="17">
@@ -1150,7 +1114,7 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
     </row>
     <row r="18">
@@ -1158,7 +1122,7 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
     </row>
     <row r="19">
@@ -1166,7 +1130,7 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
     </row>
     <row r="20">
@@ -1174,7 +1138,7 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
     </row>
     <row r="21">
@@ -1182,7 +1146,7 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
     </row>
     <row r="22">
@@ -1190,7 +1154,7 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
     </row>
     <row r="23">
@@ -1198,7 +1162,7 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
     </row>
     <row r="24">
@@ -1206,7 +1170,7 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
     </row>
     <row r="25">
@@ -1214,7 +1178,7 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
     </row>
     <row r="26">
@@ -1222,7 +1186,7 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
     </row>
     <row r="27">
@@ -1230,7 +1194,7 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
     </row>
     <row r="28">
@@ -1238,7 +1202,7 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
     </row>
     <row r="29">
@@ -1246,7 +1210,7 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
     </row>
     <row r="30">
@@ -1254,7 +1218,7 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
     </row>
     <row r="31">
@@ -1262,7 +1226,7 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
     </row>
     <row r="32">
@@ -1270,7 +1234,7 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
     </row>
     <row r="33">
@@ -1278,7 +1242,7 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
     </row>
     <row r="34">
@@ -1286,7 +1250,7 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
     </row>
     <row r="35">
@@ -1294,7 +1258,7 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
     </row>
     <row r="36">
@@ -1302,7 +1266,7 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
     </row>
     <row r="37">
@@ -1310,7 +1274,7 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
     </row>
     <row r="38">
@@ -1318,7 +1282,7 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
     </row>
     <row r="39">
@@ -1326,7 +1290,7 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
     </row>
     <row r="40">
@@ -1334,7 +1298,7 @@
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
     </row>
     <row r="41">
@@ -1342,7 +1306,7 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
     </row>
     <row r="42">
@@ -1350,7 +1314,7 @@
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
     </row>
     <row r="43">
@@ -1358,7 +1322,7 @@
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
     </row>
     <row r="44">
@@ -1366,7 +1330,7 @@
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
     </row>
     <row r="45">
@@ -1374,7 +1338,7 @@
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
     </row>
     <row r="46">
@@ -1382,7 +1346,7 @@
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
     </row>
     <row r="47">
@@ -1390,7 +1354,7 @@
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
     </row>
     <row r="48">
@@ -1398,7 +1362,7 @@
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
     </row>
     <row r="49">
@@ -1406,7 +1370,7 @@
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
     </row>
     <row r="50">
@@ -1414,7 +1378,7 @@
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
     </row>
     <row r="51">
@@ -1422,7 +1386,7 @@
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
     </row>
     <row r="52">
@@ -1430,7 +1394,7 @@
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
     </row>
     <row r="53">
@@ -1438,7 +1402,7 @@
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
     </row>
     <row r="54">
@@ -1446,7 +1410,7 @@
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
     </row>
     <row r="55">
@@ -1454,7 +1418,7 @@
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
     </row>
     <row r="56">
@@ -1462,7 +1426,7 @@
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
     </row>
     <row r="57">
@@ -1470,7 +1434,7 @@
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
     </row>
     <row r="58">
@@ -1478,7 +1442,7 @@
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
     </row>
     <row r="59">
@@ -1486,7 +1450,7 @@
         <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
     </row>
     <row r="60">
@@ -1494,7 +1458,7 @@
         <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
     </row>
     <row r="61">
@@ -1502,7 +1466,7 @@
         <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
     </row>
     <row r="62">
@@ -1510,7 +1474,7 @@
         <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
     </row>
     <row r="63">
@@ -1518,7 +1482,7 @@
         <v>62</v>
       </c>
       <c r="B63" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
     </row>
     <row r="64">
@@ -1526,7 +1490,7 @@
         <v>63</v>
       </c>
       <c r="B64" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
     </row>
     <row r="65">
@@ -1534,7 +1498,7 @@
         <v>64</v>
       </c>
       <c r="B65" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
     </row>
     <row r="66">
@@ -1542,7 +1506,7 @@
         <v>65</v>
       </c>
       <c r="B66" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
     </row>
     <row r="67">
@@ -1550,7 +1514,7 @@
         <v>66</v>
       </c>
       <c r="B67" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
     </row>
     <row r="68">
@@ -1558,7 +1522,7 @@
         <v>67</v>
       </c>
       <c r="B68" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
     </row>
     <row r="69">
@@ -1566,7 +1530,7 @@
         <v>68</v>
       </c>
       <c r="B69" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
     </row>
     <row r="70">
@@ -1574,7 +1538,7 @@
         <v>69</v>
       </c>
       <c r="B70" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
     </row>
     <row r="71">
@@ -1582,7 +1546,7 @@
         <v>70</v>
       </c>
       <c r="B71" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
     </row>
     <row r="72">
@@ -1590,7 +1554,7 @@
         <v>71</v>
       </c>
       <c r="B72" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
     </row>
     <row r="73">
@@ -1598,7 +1562,7 @@
         <v>72</v>
       </c>
       <c r="B73" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
     </row>
     <row r="74">
@@ -1606,7 +1570,7 @@
         <v>73</v>
       </c>
       <c r="B74" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
     </row>
     <row r="75">
@@ -1614,7 +1578,7 @@
         <v>74</v>
       </c>
       <c r="B75" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
     </row>
     <row r="76">
@@ -1622,7 +1586,7 @@
         <v>75</v>
       </c>
       <c r="B76" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
     </row>
     <row r="77">
@@ -1630,7 +1594,7 @@
         <v>76</v>
       </c>
       <c r="B77" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
     </row>
     <row r="78">
@@ -1638,7 +1602,7 @@
         <v>77</v>
       </c>
       <c r="B78" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
     </row>
     <row r="79">
@@ -1646,7 +1610,7 @@
         <v>78</v>
       </c>
       <c r="B79" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
     </row>
     <row r="80">
@@ -1654,7 +1618,7 @@
         <v>79</v>
       </c>
       <c r="B80" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
     </row>
     <row r="81">
@@ -1662,7 +1626,7 @@
         <v>80</v>
       </c>
       <c r="B81" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
     </row>
     <row r="82">
@@ -1670,7 +1634,7 @@
         <v>81</v>
       </c>
       <c r="B82" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
     </row>
     <row r="83">
@@ -1678,7 +1642,7 @@
         <v>82</v>
       </c>
       <c r="B83" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
     </row>
     <row r="84">
@@ -1686,7 +1650,7 @@
         <v>83</v>
       </c>
       <c r="B84" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
     </row>
     <row r="85">
@@ -1694,7 +1658,7 @@
         <v>84</v>
       </c>
       <c r="B85" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
     </row>
     <row r="86">
@@ -1702,7 +1666,7 @@
         <v>85</v>
       </c>
       <c r="B86" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
     </row>
     <row r="87">
@@ -1710,7 +1674,7 @@
         <v>86</v>
       </c>
       <c r="B87" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
     </row>
     <row r="88">
@@ -1718,7 +1682,7 @@
         <v>87</v>
       </c>
       <c r="B88" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
     </row>
     <row r="89">
@@ -1726,7 +1690,7 @@
         <v>88</v>
       </c>
       <c r="B89" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
     </row>
     <row r="90">
@@ -1734,7 +1698,7 @@
         <v>89</v>
       </c>
       <c r="B90" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
     </row>
     <row r="91">
@@ -1742,7 +1706,7 @@
         <v>90</v>
       </c>
       <c r="B91" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
     </row>
     <row r="92">
@@ -1750,7 +1714,7 @@
         <v>91</v>
       </c>
       <c r="B92" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
     </row>
     <row r="93">
@@ -1758,7 +1722,7 @@
         <v>92</v>
       </c>
       <c r="B93" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
     </row>
     <row r="94">
@@ -1766,7 +1730,7 @@
         <v>93</v>
       </c>
       <c r="B94" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
     </row>
     <row r="95">
@@ -1774,7 +1738,7 @@
         <v>94</v>
       </c>
       <c r="B95" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
     </row>
     <row r="96">
@@ -1782,7 +1746,7 @@
         <v>95</v>
       </c>
       <c r="B96" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
     </row>
     <row r="97">
@@ -1790,7 +1754,7 @@
         <v>96</v>
       </c>
       <c r="B97" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
     </row>
     <row r="98">
@@ -1798,7 +1762,7 @@
         <v>97</v>
       </c>
       <c r="B98" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
     </row>
     <row r="99">
@@ -1806,7 +1770,7 @@
         <v>98</v>
       </c>
       <c r="B99" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
     </row>
     <row r="100">
@@ -1814,7 +1778,7 @@
         <v>99</v>
       </c>
       <c r="B100" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
     </row>
     <row r="101">
@@ -1822,7 +1786,7 @@
         <v>100</v>
       </c>
       <c r="B101" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
     </row>
     <row r="102">
@@ -1830,7 +1794,7 @@
         <v>101</v>
       </c>
       <c r="B102" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
     </row>
     <row r="103">
@@ -1838,7 +1802,7 @@
         <v>102</v>
       </c>
       <c r="B103" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
     </row>
     <row r="104">
@@ -1846,7 +1810,7 @@
         <v>103</v>
       </c>
       <c r="B104" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
     </row>
     <row r="105">
@@ -1854,7 +1818,7 @@
         <v>104</v>
       </c>
       <c r="B105" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
     </row>
     <row r="106">
@@ -1862,7 +1826,7 @@
         <v>105</v>
       </c>
       <c r="B106" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
     </row>
     <row r="107">
@@ -1870,7 +1834,7 @@
         <v>106</v>
       </c>
       <c r="B107" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
     </row>
     <row r="108">
@@ -1878,7 +1842,7 @@
         <v>107</v>
       </c>
       <c r="B108" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
     </row>
     <row r="109">
@@ -1886,7 +1850,7 @@
         <v>108</v>
       </c>
       <c r="B109" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
     </row>
     <row r="110">
@@ -1894,7 +1858,7 @@
         <v>109</v>
       </c>
       <c r="B110" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
     </row>
     <row r="111">
@@ -1902,7 +1866,7 @@
         <v>110</v>
       </c>
       <c r="B111" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
     </row>
     <row r="112">
@@ -1910,7 +1874,7 @@
         <v>111</v>
       </c>
       <c r="B112" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
     </row>
     <row r="113">
@@ -1918,7 +1882,7 @@
         <v>112</v>
       </c>
       <c r="B113" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
     </row>
     <row r="114">
@@ -1926,7 +1890,7 @@
         <v>113</v>
       </c>
       <c r="B114" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
     </row>
     <row r="115">
@@ -1934,7 +1898,7 @@
         <v>114</v>
       </c>
       <c r="B115" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
     </row>
     <row r="116">
@@ -1942,7 +1906,7 @@
         <v>115</v>
       </c>
       <c r="B116" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
     </row>
     <row r="117">
@@ -1950,7 +1914,7 @@
         <v>116</v>
       </c>
       <c r="B117" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
     </row>
     <row r="118">
@@ -1958,7 +1922,7 @@
         <v>117</v>
       </c>
       <c r="B118" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
     </row>
     <row r="119">
@@ -1966,7 +1930,7 @@
         <v>118</v>
       </c>
       <c r="B119" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
     </row>
     <row r="120">
@@ -1974,7 +1938,7 @@
         <v>119</v>
       </c>
       <c r="B120" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
     </row>
     <row r="121">
@@ -1982,7 +1946,7 @@
         <v>120</v>
       </c>
       <c r="B121" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
     </row>
     <row r="122">
@@ -1990,7 +1954,7 @@
         <v>121</v>
       </c>
       <c r="B122" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
     </row>
     <row r="123">
@@ -1998,7 +1962,7 @@
         <v>122</v>
       </c>
       <c r="B123" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
     </row>
     <row r="124">
@@ -2006,7 +1970,7 @@
         <v>123</v>
       </c>
       <c r="B124" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
     </row>
     <row r="125">
@@ -2014,7 +1978,7 @@
         <v>124</v>
       </c>
       <c r="B125" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
     </row>
     <row r="126">
@@ -2022,7 +1986,7 @@
         <v>125</v>
       </c>
       <c r="B126" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
     </row>
     <row r="127">
@@ -2030,7 +1994,7 @@
         <v>126</v>
       </c>
       <c r="B127" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
     </row>
     <row r="128">
@@ -2038,7 +2002,7 @@
         <v>127</v>
       </c>
       <c r="B128" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
     </row>
     <row r="129">
@@ -2046,7 +2010,7 @@
         <v>128</v>
       </c>
       <c r="B129" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
     </row>
     <row r="130">
@@ -2054,7 +2018,7 @@
         <v>129</v>
       </c>
       <c r="B130" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
     </row>
     <row r="131">
@@ -2062,7 +2026,7 @@
         <v>130</v>
       </c>
       <c r="B131" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
     </row>
     <row r="132">
@@ -2070,7 +2034,7 @@
         <v>131</v>
       </c>
       <c r="B132" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
     </row>
     <row r="133">
@@ -2078,7 +2042,7 @@
         <v>132</v>
       </c>
       <c r="B133" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
     </row>
     <row r="134">
@@ -2086,7 +2050,7 @@
         <v>133</v>
       </c>
       <c r="B134" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
     </row>
     <row r="135">
@@ -2094,7 +2058,7 @@
         <v>134</v>
       </c>
       <c r="B135" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
     </row>
     <row r="136">
@@ -2102,7 +2066,7 @@
         <v>135</v>
       </c>
       <c r="B136" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
     </row>
     <row r="137">
@@ -2110,7 +2074,7 @@
         <v>136</v>
       </c>
       <c r="B137" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
     </row>
     <row r="138">
@@ -2118,7 +2082,7 @@
         <v>137</v>
       </c>
       <c r="B138" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
     </row>
     <row r="139">
@@ -2126,7 +2090,7 @@
         <v>138</v>
       </c>
       <c r="B139" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
     </row>
     <row r="140">
@@ -2134,7 +2098,7 @@
         <v>139</v>
       </c>
       <c r="B140" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
     </row>
     <row r="141">
@@ -2142,7 +2106,7 @@
         <v>140</v>
       </c>
       <c r="B141" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
     </row>
     <row r="142">
@@ -2150,7 +2114,7 @@
         <v>141</v>
       </c>
       <c r="B142" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
     </row>
     <row r="143">
@@ -2158,7 +2122,7 @@
         <v>142</v>
       </c>
       <c r="B143" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
     </row>
     <row r="144">
@@ -2166,7 +2130,7 @@
         <v>143</v>
       </c>
       <c r="B144" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
     </row>
     <row r="145">
@@ -2174,7 +2138,7 @@
         <v>144</v>
       </c>
       <c r="B145" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
     </row>
     <row r="146">
@@ -2182,7 +2146,7 @@
         <v>145</v>
       </c>
       <c r="B146" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
     </row>
     <row r="147">
@@ -2190,7 +2154,7 @@
         <v>146</v>
       </c>
       <c r="B147" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
     </row>
     <row r="148">
@@ -2198,7 +2162,7 @@
         <v>147</v>
       </c>
       <c r="B148" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
     </row>
     <row r="149">
@@ -2206,7 +2170,7 @@
         <v>148</v>
       </c>
       <c r="B149" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
     </row>
     <row r="150">
@@ -2214,7 +2178,7 @@
         <v>149</v>
       </c>
       <c r="B150" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
     </row>
     <row r="151">
@@ -2222,7 +2186,7 @@
         <v>150</v>
       </c>
       <c r="B151" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
     </row>
     <row r="152">
@@ -2230,7 +2194,7 @@
         <v>151</v>
       </c>
       <c r="B152" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
     </row>
     <row r="153">
@@ -2238,7 +2202,7 @@
         <v>152</v>
       </c>
       <c r="B153" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
     </row>
     <row r="154">
@@ -2246,55 +2210,7 @@
         <v>153</v>
       </c>
       <c r="B154" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="155">
-      <c r="A155" t="s">
-        <v>154</v>
-      </c>
-      <c r="B155" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="156">
-      <c r="A156" t="s">
-        <v>155</v>
-      </c>
-      <c r="B156" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="157">
-      <c r="A157" t="s">
-        <v>156</v>
-      </c>
-      <c r="B157" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="158">
-      <c r="A158" t="s">
-        <v>157</v>
-      </c>
-      <c r="B158" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="159">
-      <c r="A159" t="s">
-        <v>158</v>
-      </c>
-      <c r="B159" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="160">
-      <c r="A160" t="s">
-        <v>159</v>
-      </c>
-      <c r="B160" t="s">
-        <v>318</v>
+        <v>306</v>
       </c>
     </row>
   </sheetData>
